--- a/Tables/Sources/gameplay/Synthesis/PartSynthesisConfig.xlsx
+++ b/Tables/Sources/gameplay/Synthesis/PartSynthesisConfig.xlsx
@@ -28,10 +28,10 @@
     <t>说明</t>
   </si>
   <si>
-    <t>制作材料</t>
-  </si>
-  <si>
-    <t>制作时间（分钟）</t>
+    <t>制作材料（id・数量）</t>
+  </si>
+  <si>
+    <t>制作时间（s）</t>
   </si>
   <si>
     <t>A</t>
@@ -177,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -199,14 +199,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,23 +229,47 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -250,54 +289,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,6 +304,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -320,7 +321,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,11 +335,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -363,61 +363,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,121 +543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,6 +573,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -583,15 +607,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,26 +650,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,10 +677,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,133 +689,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1154,7 +1154,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1273,7 +1273,6 @@
       <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2"/>
       <c r="F5" s="2" t="str">
         <f t="shared" ref="F5:F10" si="0">H5&amp;"|"&amp;K5&amp;";"&amp;H11&amp;"|"&amp;K11</f>
         <v>100|2;106|4</v>
@@ -1307,7 +1306,6 @@
       <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="2"/>
       <c r="F6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>101|2;107|4</v>
@@ -1342,7 +1340,6 @@
       <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="2"/>
       <c r="F7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>102|2;108|4</v>
@@ -1377,7 +1374,6 @@
       <c r="D8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="2"/>
       <c r="F8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>103|2;109|4</v>
@@ -1412,7 +1408,6 @@
       <c r="D9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="2"/>
       <c r="F9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>104|2;110|4</v>
@@ -1447,7 +1442,6 @@
       <c r="D10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="2"/>
       <c r="F10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>105|2;111|4</v>

--- a/Tables/Sources/gameplay/Synthesis/PartSynthesisConfig.xlsx
+++ b/Tables/Sources/gameplay/Synthesis/PartSynthesisConfig.xlsx
@@ -147,11 +147,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -167,6 +167,128 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -177,128 +299,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -328,85 +328,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,7 +466,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,85 +508,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,32 +533,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,6 +562,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -598,6 +596,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,24 +626,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,10 +642,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,7 +654,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -663,128 +663,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -805,9 +805,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -879,398 +876,290 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="5">
-          <cell r="A5" t="str">
-            <v>石材</v>
-          </cell>
-          <cell r="B5">
+          <cell r="A5">
             <v>1001</v>
           </cell>
-          <cell r="C5" t="str">
+          <cell r="B5" t="str">
             <v>Stone</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="A6" t="str">
-            <v>木材</v>
-          </cell>
-          <cell r="B6">
+          <cell r="A6">
             <v>1002</v>
           </cell>
-          <cell r="C6" t="str">
+          <cell r="B6" t="str">
             <v>Wood</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="A7" t="str">
-            <v>铁矿</v>
-          </cell>
-          <cell r="B7">
+          <cell r="A7">
             <v>1003</v>
           </cell>
-          <cell r="C7" t="str">
+          <cell r="B7" t="str">
             <v>Iron Ore</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="A8" t="str">
-            <v>铁</v>
-          </cell>
-          <cell r="B8">
+          <cell r="A8">
             <v>1004</v>
           </cell>
-          <cell r="C8" t="str">
+          <cell r="B8" t="str">
             <v>Iron</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="A9" t="str">
-            <v>钢</v>
-          </cell>
-          <cell r="B9">
+          <cell r="A9">
             <v>1005</v>
           </cell>
-          <cell r="C9" t="str">
+          <cell r="B9" t="str">
             <v>Steel</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="A10" t="str">
-            <v>硝石矿</v>
-          </cell>
-          <cell r="B10">
+          <cell r="A10">
             <v>1006</v>
           </cell>
-          <cell r="C10" t="str">
+          <cell r="B10" t="str">
             <v>Saltpeter Mine</v>
           </cell>
         </row>
         <row r="11">
-          <cell r="A11" t="str">
-            <v>硝石</v>
-          </cell>
-          <cell r="B11">
+          <cell r="A11">
             <v>1007</v>
           </cell>
-          <cell r="C11" t="str">
+          <cell r="B11" t="str">
             <v>Saltpeter</v>
           </cell>
         </row>
         <row r="12">
-          <cell r="A12" t="str">
-            <v>火药</v>
-          </cell>
-          <cell r="B12">
+          <cell r="A12">
             <v>1008</v>
           </cell>
-          <cell r="C12" t="str">
+          <cell r="B12" t="str">
             <v>Gunpowder</v>
           </cell>
         </row>
         <row r="13">
-          <cell r="A13" t="str">
-            <v>兽皮</v>
-          </cell>
-          <cell r="B13">
+          <cell r="A13">
             <v>1009</v>
           </cell>
-          <cell r="C13" t="str">
+          <cell r="B13" t="str">
             <v>Hide</v>
           </cell>
         </row>
         <row r="14">
-          <cell r="A14" t="str">
-            <v>皮革</v>
-          </cell>
-          <cell r="B14">
+          <cell r="A14">
             <v>1010</v>
           </cell>
-          <cell r="C14" t="str">
+          <cell r="B14" t="str">
             <v>Leather</v>
           </cell>
         </row>
         <row r="15">
-          <cell r="A15" t="str">
-            <v>精皮革</v>
-          </cell>
-          <cell r="B15">
+          <cell r="A15">
             <v>1011</v>
           </cell>
-          <cell r="C15" t="str">
+          <cell r="B15" t="str">
             <v>Fine Leather</v>
           </cell>
         </row>
         <row r="16">
-          <cell r="A16" t="str">
-            <v>红水晶</v>
-          </cell>
-          <cell r="B16">
+          <cell r="A16">
             <v>1012</v>
           </cell>
-          <cell r="C16" t="str">
+          <cell r="B16" t="str">
             <v>Rubasse</v>
           </cell>
         </row>
         <row r="17">
-          <cell r="A17" t="str">
-            <v>紫水晶</v>
-          </cell>
-          <cell r="B17">
+          <cell r="A17">
             <v>1013</v>
           </cell>
-          <cell r="C17" t="str">
+          <cell r="B17" t="str">
             <v>Amethyst</v>
           </cell>
         </row>
         <row r="18">
-          <cell r="A18" t="str">
-            <v>黑水晶</v>
-          </cell>
-          <cell r="B18">
+          <cell r="A18">
             <v>1014</v>
           </cell>
-          <cell r="C18" t="str">
+          <cell r="B18" t="str">
             <v>Morion</v>
           </cell>
         </row>
         <row r="19">
-          <cell r="A19" t="str">
-            <v>红宝石</v>
-          </cell>
-          <cell r="B19">
+          <cell r="A19">
             <v>1015</v>
           </cell>
-          <cell r="C19" t="str">
+          <cell r="B19" t="str">
             <v>Ruby</v>
           </cell>
         </row>
         <row r="20">
-          <cell r="A20" t="str">
-            <v>紫宝石</v>
-          </cell>
-          <cell r="B20">
+          <cell r="A20">
             <v>1016</v>
           </cell>
-          <cell r="C20" t="str">
+          <cell r="B20" t="str">
             <v>Purple Gem</v>
           </cell>
         </row>
         <row r="21">
-          <cell r="A21" t="str">
-            <v>黑宝石</v>
-          </cell>
-          <cell r="B21">
+          <cell r="A21">
             <v>1017</v>
           </cell>
-          <cell r="C21" t="str">
+          <cell r="B21" t="str">
             <v>Black Onyx</v>
           </cell>
         </row>
         <row r="22">
-          <cell r="A22" t="str">
-            <v>珊瑚</v>
-          </cell>
-          <cell r="B22">
+          <cell r="A22">
             <v>1018</v>
           </cell>
-          <cell r="C22" t="str">
+          <cell r="B22" t="str">
             <v>Coral</v>
           </cell>
         </row>
         <row r="23">
-          <cell r="A23" t="str">
-            <v>珍珠</v>
-          </cell>
-          <cell r="B23">
+          <cell r="A23">
             <v>1019</v>
           </cell>
-          <cell r="C23" t="str">
+          <cell r="B23" t="str">
             <v>Pearl</v>
           </cell>
         </row>
         <row r="24">
-          <cell r="A24" t="str">
-            <v>琥珀</v>
-          </cell>
-          <cell r="B24">
+          <cell r="A24">
             <v>1020</v>
           </cell>
-          <cell r="C24" t="str">
+          <cell r="B24" t="str">
             <v>Lamber</v>
           </cell>
         </row>
         <row r="25">
-          <cell r="A25" t="str">
-            <v>人鱼眼泪</v>
-          </cell>
-          <cell r="B25">
+          <cell r="A25">
             <v>1021</v>
           </cell>
-          <cell r="C25" t="str">
+          <cell r="B25" t="str">
             <v>Mermaid Tears</v>
           </cell>
         </row>
         <row r="26">
-          <cell r="A26" t="str">
-            <v>神秘黏液</v>
-          </cell>
-          <cell r="B26">
+          <cell r="A26">
             <v>1022</v>
           </cell>
-          <cell r="C26" t="str">
+          <cell r="B26" t="str">
             <v>Mystery Mucus</v>
           </cell>
         </row>
         <row r="27">
-          <cell r="A27" t="str">
-            <v>巨蜥尾巴</v>
-          </cell>
-          <cell r="B27">
+          <cell r="A27">
             <v>1023</v>
           </cell>
-          <cell r="C27" t="str">
+          <cell r="B27" t="str">
             <v>Giant Lizard Tails</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="A28" t="str">
-            <v>湛蓝羽毛</v>
-          </cell>
-          <cell r="B28">
+          <cell r="A28">
             <v>1024</v>
           </cell>
-          <cell r="C28" t="str">
+          <cell r="B28" t="str">
             <v>Blue Feather</v>
           </cell>
         </row>
         <row r="29">
-          <cell r="A29" t="str">
-            <v>鲷鱼</v>
-          </cell>
-          <cell r="B29">
+          <cell r="A29">
             <v>1025</v>
           </cell>
-          <cell r="C29" t="str">
+          <cell r="B29" t="str">
             <v>Volador</v>
           </cell>
         </row>
         <row r="30">
-          <cell r="A30" t="str">
-            <v>银鲳</v>
-          </cell>
-          <cell r="B30">
+          <cell r="A30">
             <v>1026</v>
           </cell>
-          <cell r="C30" t="str">
+          <cell r="B30" t="str">
             <v>Pomfret</v>
           </cell>
         </row>
         <row r="31">
-          <cell r="A31" t="str">
-            <v>鱿鱼</v>
-          </cell>
-          <cell r="B31">
+          <cell r="A31">
             <v>1027</v>
           </cell>
-          <cell r="C31" t="str">
+          <cell r="B31" t="str">
             <v>Squid</v>
           </cell>
         </row>
         <row r="32">
-          <cell r="A32" t="str">
-            <v>金枪鱼</v>
-          </cell>
-          <cell r="B32">
+          <cell r="A32">
             <v>1028</v>
           </cell>
-          <cell r="C32" t="str">
+          <cell r="B32" t="str">
             <v>Tuna</v>
           </cell>
         </row>
         <row r="33">
-          <cell r="A33" t="str">
-            <v>鲨鱼</v>
-          </cell>
-          <cell r="B33">
+          <cell r="A33">
             <v>1029</v>
           </cell>
-          <cell r="C33" t="str">
+          <cell r="B33" t="str">
             <v>Shark</v>
           </cell>
         </row>
         <row r="34">
-          <cell r="A34" t="str">
-            <v>大章鱼</v>
-          </cell>
-          <cell r="B34">
+          <cell r="A34">
             <v>1030</v>
           </cell>
-          <cell r="C34" t="str">
+          <cell r="B34" t="str">
             <v>Octopuss</v>
           </cell>
         </row>
         <row r="35">
-          <cell r="A35" t="str">
-            <v>辣椒</v>
-          </cell>
-          <cell r="B35">
+          <cell r="A35">
             <v>1031</v>
           </cell>
-          <cell r="C35" t="str">
+          <cell r="B35" t="str">
             <v>Chili</v>
           </cell>
         </row>
         <row r="36">
-          <cell r="A36" t="str">
-            <v>橘子</v>
-          </cell>
-          <cell r="B36">
+          <cell r="A36">
             <v>1032</v>
           </cell>
-          <cell r="C36" t="str">
+          <cell r="B36" t="str">
             <v>Orange</v>
           </cell>
         </row>
         <row r="37">
-          <cell r="A37" t="str">
-            <v>土豆</v>
-          </cell>
-          <cell r="B37">
+          <cell r="A37">
             <v>1033</v>
           </cell>
-          <cell r="C37" t="str">
+          <cell r="B37" t="str">
             <v>Potato</v>
           </cell>
         </row>
         <row r="38">
-          <cell r="A38" t="str">
-            <v>柠檬</v>
-          </cell>
-          <cell r="B38">
+          <cell r="A38">
             <v>1034</v>
           </cell>
-          <cell r="C38" t="str">
+          <cell r="B38" t="str">
             <v>Limo</v>
           </cell>
         </row>
         <row r="39">
-          <cell r="A39" t="str">
-            <v>迷迭香</v>
-          </cell>
-          <cell r="B39">
+          <cell r="A39">
             <v>1035</v>
           </cell>
-          <cell r="C39" t="str">
+          <cell r="B39" t="str">
             <v>Rosemary</v>
           </cell>
         </row>
         <row r="40">
-          <cell r="A40" t="str">
-            <v>番茄</v>
-          </cell>
-          <cell r="B40">
+          <cell r="A40">
             <v>1036</v>
           </cell>
-          <cell r="C40" t="str">
+          <cell r="B40" t="str">
             <v>Tomato</v>
           </cell>
         </row>
@@ -1541,7 +1430,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E12"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1709,9 +1598,9 @@
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="str">
-        <f>VLOOKUP(B5,[1]Sheet1!$A$5:$C$40,3,FALSE)</f>
-        <v>Iron</v>
+      <c r="C5" s="2" t="e">
+        <f>VLOOKUP(B5,[1]Sheet1!$A$5:$B$40,3,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
@@ -1730,19 +1619,18 @@
         <v>22</v>
       </c>
       <c r="I5" s="2">
-        <f>VLOOKUP(H5,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1003</v>
       </c>
       <c r="J5" s="2">
         <v>20</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="2">
         <v>-1</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="2">
         <v>1000</v>
       </c>
     </row>
@@ -1753,9 +1641,9 @@
       <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="str">
-        <f>VLOOKUP(B6,[1]Sheet1!$A$5:$C$40,3,FALSE)</f>
-        <v>Steel</v>
+      <c r="C6" s="2" t="e">
+        <f>VLOOKUP(B6,[1]Sheet1!$A$5:$B$40,3,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>25</v>
@@ -1774,19 +1662,18 @@
         <v>19</v>
       </c>
       <c r="I6" s="2">
-        <f>VLOOKUP(H6,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1004</v>
       </c>
       <c r="J6" s="2">
         <v>20</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="2">
         <v>-1</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="2">
         <v>1000</v>
       </c>
     </row>
@@ -1797,9 +1684,9 @@
       <c r="B7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="str">
-        <f>VLOOKUP(B7,[1]Sheet1!$A$5:$C$40,3,FALSE)</f>
-        <v>Saltpeter</v>
+      <c r="C7" s="2" t="e">
+        <f>VLOOKUP(B7,[1]Sheet1!$A$5:$B$40,3,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>27</v>
@@ -1818,19 +1705,18 @@
         <v>28</v>
       </c>
       <c r="I7" s="2">
-        <f>VLOOKUP(H7,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1006</v>
       </c>
       <c r="J7" s="2">
         <v>20</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="2">
         <v>-1</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="2">
         <v>1000</v>
       </c>
     </row>
@@ -1841,9 +1727,9 @@
       <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="2" t="str">
-        <f>VLOOKUP(B8,[1]Sheet1!$A$5:$C$40,3,FALSE)</f>
-        <v>Gunpowder</v>
+      <c r="C8" s="2" t="e">
+        <f>VLOOKUP(B8,[1]Sheet1!$A$5:$B$40,3,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>30</v>
@@ -1862,19 +1748,18 @@
         <v>26</v>
       </c>
       <c r="I8" s="2">
-        <f>VLOOKUP(H8,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1007</v>
       </c>
       <c r="J8" s="2">
         <v>20</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="2">
         <v>-1</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="2">
         <v>1000</v>
       </c>
     </row>
@@ -1885,9 +1770,9 @@
       <c r="B9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="2" t="str">
-        <f>VLOOKUP(B9,[1]Sheet1!$A$5:$C$40,3,FALSE)</f>
-        <v>Leather</v>
+      <c r="C9" s="2" t="e">
+        <f>VLOOKUP(B9,[1]Sheet1!$A$5:$B$40,3,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>32</v>
@@ -1906,19 +1791,18 @@
         <v>33</v>
       </c>
       <c r="I9" s="2">
-        <f>VLOOKUP(H9,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1009</v>
       </c>
       <c r="J9" s="2">
         <v>20</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="2">
         <v>-1</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="2">
         <v>1000</v>
       </c>
     </row>
@@ -1929,9 +1813,9 @@
       <c r="B10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="2" t="str">
-        <f>VLOOKUP(B10,[1]Sheet1!$A$5:$C$40,3,FALSE)</f>
-        <v>Fine Leather</v>
+      <c r="C10" s="2" t="e">
+        <f>VLOOKUP(B10,[1]Sheet1!$A$5:$B$40,3,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>35</v>
@@ -1950,19 +1834,18 @@
         <v>31</v>
       </c>
       <c r="I10" s="2">
-        <f>VLOOKUP(H10,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1010</v>
       </c>
       <c r="J10" s="2">
         <v>20</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="2">
         <v>-1</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="2">
         <v>1000</v>
       </c>
     </row>
@@ -1973,9 +1856,9 @@
       <c r="B11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="2" t="str">
-        <f>VLOOKUP(B11,[1]Sheet1!$A$5:$C$40,3,FALSE)</f>
-        <v>Amethyst</v>
+      <c r="C11" s="2" t="e">
+        <f>VLOOKUP(B11,[1]Sheet1!$A$5:$B$40,3,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>37</v>
@@ -1994,19 +1877,18 @@
         <v>38</v>
       </c>
       <c r="I11" s="2">
-        <f>VLOOKUP(H11,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1012</v>
       </c>
       <c r="J11" s="2">
         <v>20</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="2">
         <v>-1</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="2">
         <v>1000</v>
       </c>
     </row>
@@ -2017,9 +1899,9 @@
       <c r="B12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="2" t="str">
-        <f>VLOOKUP(B12,[1]Sheet1!$A$5:$C$40,3,FALSE)</f>
-        <v>Morion</v>
+      <c r="C12" s="2" t="e">
+        <f>VLOOKUP(B12,[1]Sheet1!$A$5:$B$40,3,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>40</v>
@@ -2038,19 +1920,18 @@
         <v>36</v>
       </c>
       <c r="I12" s="2">
-        <f>VLOOKUP(H12,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1013</v>
       </c>
       <c r="J12" s="2">
         <v>20</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="2">
         <v>-1</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="2">
         <v>1000</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/Synthesis/PartSynthesisConfig.xlsx
+++ b/Tables/Sources/gameplay/Synthesis/PartSynthesisConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18060"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,9 +152,9 @@
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -173,6 +173,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -187,12 +217,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -201,17 +238,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,8 +254,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,13 +271,21 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -255,62 +293,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,187 +331,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,11 +542,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,7 +598,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,30 +618,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -637,6 +626,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -645,10 +645,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,133 +657,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1152,7 +1152,7 @@
     <col min="9" max="16376" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:11">
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="12" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="5" s="2" customFormat="1" spans="1:11">
       <c r="A5" s="2">
-        <v>1001</v>
+        <v>1301</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>21</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="6" s="2" customFormat="1" spans="1:11">
       <c r="A6" s="2">
-        <v>1002</v>
+        <v>1302</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>25</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="7" s="2" customFormat="1" spans="1:11">
       <c r="A7" s="2">
-        <v>1003</v>
+        <v>1303</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>27</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="1:11">
       <c r="A8" s="2">
-        <v>1004</v>
+        <v>1304</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>30</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="9" s="2" customFormat="1" spans="1:11">
       <c r="A9" s="2">
-        <v>1005</v>
+        <v>1305</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>32</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="10" s="2" customFormat="1" spans="1:11">
       <c r="A10" s="2">
-        <v>1006</v>
+        <v>1306</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>35</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="11" s="2" customFormat="1" spans="1:11">
       <c r="A11" s="2">
-        <v>1007</v>
+        <v>1307</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>38</v>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="12" s="2" customFormat="1" spans="1:11">
       <c r="A12" s="2">
-        <v>1008</v>
+        <v>1308</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>41</v>

--- a/Tables/Sources/gameplay/Synthesis/PartSynthesisConfig.xlsx
+++ b/Tables/Sources/gameplay/Synthesis/PartSynthesisConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowHeight="18060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,10 +150,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -173,7 +173,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,6 +187,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -195,52 +253,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,53 +293,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -331,25 +331,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,157 +469,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,32 +549,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,23 +582,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,8 +606,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,10 +645,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,137 +657,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -796,6 +796,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1137,7 +1140,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1177,13 +1180,13 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1212,13 +1215,13 @@
       <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1275,22 +1278,22 @@
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:11">
-      <c r="A5" s="2">
-        <v>1301</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="3">
+        <v>1004</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="5" t="str">
+      <c r="F5" s="6" t="str">
         <f>J5&amp;"|"&amp;K5</f>
         <v>1003|20</v>
       </c>
@@ -1300,7 +1303,7 @@
       <c r="H5" s="2">
         <v>1000</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="J5" s="2">
@@ -1311,22 +1314,22 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:11">
-      <c r="A6" s="2">
-        <v>1302</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="3">
+        <v>1005</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="5" t="str">
+      <c r="F6" s="6" t="str">
         <f t="shared" ref="F6:F12" si="0">J6&amp;"|"&amp;K6</f>
         <v>1004|20</v>
       </c>
@@ -1336,7 +1339,7 @@
       <c r="H6" s="2">
         <v>1000</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J6" s="2">
@@ -1347,22 +1350,22 @@
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:11">
-      <c r="A7" s="2">
-        <v>1303</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="3">
+        <v>1007</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="5" t="str">
+      <c r="F7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1006|20</v>
       </c>
@@ -1372,7 +1375,7 @@
       <c r="H7" s="2">
         <v>1000</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="7" t="s">
         <v>29</v>
       </c>
       <c r="J7" s="2">
@@ -1383,22 +1386,22 @@
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:11">
-      <c r="A8" s="2">
-        <v>1304</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="3">
+        <v>1008</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="5" t="str">
+      <c r="F8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1007|20</v>
       </c>
@@ -1408,7 +1411,7 @@
       <c r="H8" s="2">
         <v>1000</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J8" s="2">
@@ -1419,22 +1422,22 @@
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:11">
-      <c r="A9" s="2">
-        <v>1305</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="3">
+        <v>1010</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="5" t="str">
+      <c r="F9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1009|20</v>
       </c>
@@ -1444,7 +1447,7 @@
       <c r="H9" s="2">
         <v>1000</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="7" t="s">
         <v>34</v>
       </c>
       <c r="J9" s="2">
@@ -1455,22 +1458,22 @@
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:11">
-      <c r="A10" s="2">
-        <v>1306</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="3">
+        <v>1011</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="5" t="str">
+      <c r="F10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1010|20</v>
       </c>
@@ -1480,7 +1483,7 @@
       <c r="H10" s="2">
         <v>1000</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="J10" s="2">
@@ -1491,22 +1494,22 @@
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:11">
-      <c r="A11" s="2">
-        <v>1307</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="3">
+        <v>1013</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="5" t="str">
+      <c r="F11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1012|20</v>
       </c>
@@ -1516,7 +1519,7 @@
       <c r="H11" s="2">
         <v>1000</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="7" t="s">
         <v>40</v>
       </c>
       <c r="J11" s="2">
@@ -1527,22 +1530,22 @@
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:11">
-      <c r="A12" s="2">
-        <v>1308</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="3">
+        <v>1014</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="5" t="str">
+      <c r="F12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1013|20</v>
       </c>
@@ -1552,7 +1555,7 @@
       <c r="H12" s="2">
         <v>1000</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="7" t="s">
         <v>38</v>
       </c>
       <c r="J12" s="2">

--- a/Tables/Sources/gameplay/Synthesis/PartSynthesisConfig.xlsx
+++ b/Tables/Sources/gameplay/Synthesis/PartSynthesisConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18060"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>Name1</t>
   </si>
   <si>
     <t>Name</t>
@@ -150,11 +153,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -172,8 +175,54 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,99 +236,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,24 +297,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,181 +334,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,24 +545,29 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,15 +587,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -603,11 +602,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,11 +634,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,10 +648,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,137 +660,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -796,9 +799,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1140,7 +1140,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1180,13 +1180,13 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1215,13 +1215,13 @@
       <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1259,41 +1259,41 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:11">
       <c r="A5" s="3">
         <v>1004</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="6" t="str">
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="5" t="str">
         <f>J5&amp;"|"&amp;K5</f>
         <v>1003|20</v>
       </c>
@@ -1303,8 +1303,8 @@
       <c r="H5" s="2">
         <v>1000</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>24</v>
+      <c r="I5" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="J5" s="2">
         <v>1003</v>
@@ -1317,19 +1317,19 @@
       <c r="A6" s="3">
         <v>1005</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="6" t="str">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="5" t="str">
         <f t="shared" ref="F6:F12" si="0">J6&amp;"|"&amp;K6</f>
         <v>1004|20</v>
       </c>
@@ -1339,8 +1339,8 @@
       <c r="H6" s="2">
         <v>1000</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>21</v>
+      <c r="I6" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="J6" s="2">
         <v>1004</v>
@@ -1353,19 +1353,19 @@
       <c r="A7" s="3">
         <v>1007</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="6" t="str">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1006|20</v>
       </c>
@@ -1375,8 +1375,8 @@
       <c r="H7" s="2">
         <v>1000</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>29</v>
+      <c r="I7" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="J7" s="2">
         <v>1006</v>
@@ -1389,19 +1389,19 @@
       <c r="A8" s="3">
         <v>1008</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="C8" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="6" t="str">
+        <v>32</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1007|20</v>
       </c>
@@ -1411,8 +1411,8 @@
       <c r="H8" s="2">
         <v>1000</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>27</v>
+      <c r="I8" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="J8" s="2">
         <v>1007</v>
@@ -1425,19 +1425,19 @@
       <c r="A9" s="3">
         <v>1010</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="C9" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="6" t="str">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1009|20</v>
       </c>
@@ -1447,8 +1447,8 @@
       <c r="H9" s="2">
         <v>1000</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>34</v>
+      <c r="I9" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="J9" s="2">
         <v>1009</v>
@@ -1461,19 +1461,19 @@
       <c r="A10" s="3">
         <v>1011</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="C10" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="6" t="str">
+        <v>38</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1010|20</v>
       </c>
@@ -1483,8 +1483,8 @@
       <c r="H10" s="2">
         <v>1000</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>32</v>
+      <c r="I10" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J10" s="2">
         <v>1010</v>
@@ -1497,19 +1497,19 @@
       <c r="A11" s="3">
         <v>1013</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="C11" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="6" t="str">
+        <v>40</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1012|20</v>
       </c>
@@ -1519,8 +1519,8 @@
       <c r="H11" s="2">
         <v>1000</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>40</v>
+      <c r="I11" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="J11" s="2">
         <v>1012</v>
@@ -1533,19 +1533,19 @@
       <c r="A12" s="3">
         <v>1014</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>42</v>
       </c>
+      <c r="C12" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="6" t="str">
+        <v>43</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1013|20</v>
       </c>
@@ -1555,8 +1555,8 @@
       <c r="H12" s="2">
         <v>1000</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>38</v>
+      <c r="I12" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="J12" s="2">
         <v>1013</v>

--- a/Tables/Sources/gameplay/Synthesis/PartSynthesisConfig.xlsx
+++ b/Tables/Sources/gameplay/Synthesis/PartSynthesisConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -22,13 +22,10 @@
     <t>名称</t>
   </si>
   <si>
-    <t>贴图</t>
-  </si>
-  <si>
     <t>说明</t>
   </si>
   <si>
-    <t>制作材料（id・数量）</t>
+    <t>制作材料（id|数量）</t>
   </si>
   <si>
     <t>制作时间（s）</t>
@@ -64,12 +61,6 @@
     <t>Name1</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>SpriteName</t>
-  </si>
-  <si>
     <t>Desc</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>铁</t>
   </si>
   <si>
-    <t>Iron</t>
-  </si>
-  <si>
     <t>A good thing.</t>
   </si>
   <si>
@@ -97,55 +85,31 @@
     <t>钢</t>
   </si>
   <si>
-    <t>Steel</t>
-  </si>
-  <si>
     <t>硝石</t>
   </si>
   <si>
-    <t>Saltpeter</t>
-  </si>
-  <si>
     <t>硝石矿</t>
   </si>
   <si>
     <t>火药</t>
   </si>
   <si>
-    <t>Gunpowder</t>
-  </si>
-  <si>
     <t>皮革</t>
   </si>
   <si>
-    <t>Leather</t>
-  </si>
-  <si>
     <t>兽皮</t>
   </si>
   <si>
     <t>精皮革</t>
   </si>
   <si>
-    <t>Fine Leather</t>
-  </si>
-  <si>
-    <t>FineLeather</t>
-  </si>
-  <si>
     <t>紫水晶</t>
   </si>
   <si>
-    <t>Amethyst</t>
-  </si>
-  <si>
     <t>红水晶</t>
   </si>
   <si>
     <t>黑水晶</t>
-  </si>
-  <si>
-    <t>Morion</t>
   </si>
 </sst>
 </file>
@@ -154,10 +118,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -175,7 +139,51 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -183,11 +191,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,92 +231,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,23 +260,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,151 +298,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,31 +478,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,26 +503,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,17 +546,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,6 +580,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -648,10 +612,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -663,134 +627,134 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -800,23 +764,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1137,25 +1095,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.22222222222222" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.8796296296296" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.1111111111111" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.1296296296296" style="2" customWidth="1"/>
-    <col min="7" max="8" width="19.5" style="2" customWidth="1"/>
-    <col min="9" max="16376" width="9" style="2"/>
+    <col min="3" max="3" width="33.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.1296296296296" style="2" customWidth="1"/>
+    <col min="5" max="6" width="19.5" style="2" customWidth="1"/>
+    <col min="7" max="16374" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,405 +1119,333 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="8" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:9">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" s="1" customFormat="1" ht="12" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="12" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" s="1" customFormat="1" ht="12" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
+    <row r="5" s="2" customFormat="1" spans="1:9">
+      <c r="A5" s="4">
+        <v>1004</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f>H5&amp;"|"&amp;I5</f>
+        <v>1003|20</v>
+      </c>
+      <c r="E5" s="2">
+        <v>60</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="H5" s="2">
+        <v>1003</v>
+      </c>
+      <c r="I5" s="2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:11">
-      <c r="A5" s="3">
+    <row r="6" s="2" customFormat="1" spans="1:9">
+      <c r="A6" s="4">
+        <v>1005</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f t="shared" ref="D6:D12" si="0">H6&amp;"|"&amp;I6</f>
+        <v>1004|20</v>
+      </c>
+      <c r="E6" s="2">
+        <v>60</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2">
         <v>1004</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="I6" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:9">
+      <c r="A7" s="4">
+        <v>1007</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="5" t="str">
-        <f>J5&amp;"|"&amp;K5</f>
-        <v>1003|20</v>
-      </c>
-      <c r="G5" s="2">
-        <v>60</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1003</v>
-      </c>
-      <c r="K5" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:11">
-      <c r="A6" s="3">
-        <v>1005</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="5" t="str">
-        <f t="shared" ref="F6:F12" si="0">J6&amp;"|"&amp;K6</f>
-        <v>1004|20</v>
-      </c>
-      <c r="G6" s="2">
-        <v>60</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1004</v>
-      </c>
-      <c r="K6" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:11">
-      <c r="A7" s="3">
-        <v>1007</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="5" t="str">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1006|20</v>
       </c>
-      <c r="G7" s="2">
+      <c r="E7" s="2">
         <v>60</v>
       </c>
+      <c r="F7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="H7" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="2">
         <v>1006</v>
       </c>
-      <c r="K7" s="2">
+      <c r="I7" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:11">
-      <c r="A8" s="3">
+    <row r="8" s="2" customFormat="1" spans="1:9">
+      <c r="A8" s="4">
         <v>1008</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="5" t="str">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1007|20</v>
       </c>
-      <c r="G8" s="2">
+      <c r="E8" s="2">
         <v>60</v>
       </c>
+      <c r="F8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="H8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="2">
         <v>1007</v>
       </c>
-      <c r="K8" s="2">
+      <c r="I8" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:11">
-      <c r="A9" s="3">
+    <row r="9" s="2" customFormat="1" spans="1:9">
+      <c r="A9" s="4">
         <v>1010</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="5" t="str">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1009|20</v>
       </c>
-      <c r="G9" s="2">
+      <c r="E9" s="2">
         <v>60</v>
       </c>
+      <c r="F9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="H9" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="2">
         <v>1009</v>
       </c>
-      <c r="K9" s="2">
+      <c r="I9" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:11">
-      <c r="A10" s="3">
+    <row r="10" s="2" customFormat="1" spans="1:9">
+      <c r="A10" s="4">
         <v>1011</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="5" t="str">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1010|20</v>
       </c>
-      <c r="G10" s="2">
+      <c r="E10" s="2">
         <v>60</v>
       </c>
+      <c r="F10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="H10" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="2">
         <v>1010</v>
       </c>
-      <c r="K10" s="2">
+      <c r="I10" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:11">
-      <c r="A11" s="3">
+    <row r="11" s="2" customFormat="1" spans="1:9">
+      <c r="A11" s="4">
         <v>1013</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="5" t="str">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1012|20</v>
       </c>
-      <c r="G11" s="2">
+      <c r="E11" s="2">
         <v>60</v>
       </c>
+      <c r="F11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="H11" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="2">
         <v>1012</v>
       </c>
-      <c r="K11" s="2">
+      <c r="I11" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:11">
-      <c r="A12" s="3">
+    <row r="12" s="2" customFormat="1" spans="1:9">
+      <c r="A12" s="4">
         <v>1014</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="5" t="str">
+        <v>20</v>
+      </c>
+      <c r="D12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1013|20</v>
       </c>
-      <c r="G12" s="2">
+      <c r="E12" s="2">
         <v>60</v>
       </c>
+      <c r="F12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="H12" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="2">
         <v>1013</v>
       </c>
-      <c r="K12" s="2">
+      <c r="I12" s="2">
         <v>20</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/Synthesis/PartSynthesisConfig.xlsx
+++ b/Tables/Sources/gameplay/Synthesis/PartSynthesisConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowHeight="18060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -110,6 +110,24 @@
   </si>
   <si>
     <t>黑水晶</t>
+  </si>
+  <si>
+    <t>粗麻布</t>
+  </si>
+  <si>
+    <t>亚麻</t>
+  </si>
+  <si>
+    <t>精麻布</t>
+  </si>
+  <si>
+    <t>铜</t>
+  </si>
+  <si>
+    <t>铜矿</t>
+  </si>
+  <si>
+    <t>黄铜</t>
   </si>
 </sst>
 </file>
@@ -117,11 +135,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -140,7 +158,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,135 +300,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -298,187 +316,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,6 +525,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -517,15 +550,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -557,17 +605,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,30 +622,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -612,10 +630,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,137 +642,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -774,6 +792,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1098,7 +1122,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1250,7 +1274,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="5" t="str">
-        <f t="shared" ref="D6:D12" si="0">H6&amp;"|"&amp;I6</f>
+        <f t="shared" ref="D6:D16" si="0">H6&amp;"|"&amp;I6</f>
         <v>1004|20</v>
       </c>
       <c r="E6" s="2">
@@ -1449,10 +1473,126 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1"/>
-    <row r="14" s="2" customFormat="1"/>
-    <row r="15" s="2" customFormat="1"/>
-    <row r="16" s="2" customFormat="1"/>
+    <row r="13" s="2" customFormat="1" spans="1:9">
+      <c r="A13" s="4">
+        <v>1048</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="5" t="str">
+        <f>H13&amp;"|"&amp;I13</f>
+        <v>1047|20</v>
+      </c>
+      <c r="E13" s="2">
+        <v>60</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1047</v>
+      </c>
+      <c r="I13" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:9">
+      <c r="A14" s="4">
+        <v>1049</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1048|20</v>
+      </c>
+      <c r="E14" s="2">
+        <v>60</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1048</v>
+      </c>
+      <c r="I14" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:9">
+      <c r="A15" s="4">
+        <v>1051</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1050|20</v>
+      </c>
+      <c r="E15" s="2">
+        <v>60</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1050</v>
+      </c>
+      <c r="I15" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:9">
+      <c r="A16" s="4">
+        <v>1052</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1051|20</v>
+      </c>
+      <c r="E16" s="2">
+        <v>60</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1051</v>
+      </c>
+      <c r="I16" s="2">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
